--- a/communication_python/Spend_comm5100.xlsx
+++ b/communication_python/Spend_comm5100.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.39694</v>
+        <v>0.337661</v>
       </c>
     </row>
   </sheetData>
